--- a/tatiana/es/main.xlsx
+++ b/tatiana/es/main.xlsx
@@ -994,7 +994,7 @@
     <t>Yo, viendo un video del primer entrenamiento de NI, pensé que era muy fácil. Y soy, una "atleta", necesito al menos un nivel medio. 👌 Pero qué equivocada estaba. Apenas sobrevivi la primera semana. Dieta y raciones + dolor muscular.</t>
   </si>
   <si>
-    <t>Y esto es de un nivel de inicio. Sinceramnte, estoy en shock por mi condición física. Ahora es la tercera semana que entreno, es mucho más fácil, incluso estoy esperando el momento para empiezar a entrenar. Sí, y con la comida me estoy involucrando gradualmente. Aún así, la "secta" me estimula.</t>
+    <t>Y esto es de un nivel de inicio. Sinceramente, estoy en shock por mi condición física. Ahora es la tercera semana que entreno, es mucho más fácil, incluso estoy esperando el momento para empezar a entrenar. Sí, y con la comida me estoy involucrando gradualmente. Aún así, la "secta" me estimula.</t>
   </si>
   <si>
     <t>Y sí, después de ganar kilos de vacaciones, ya he perdido 2 kilos. Hurra!!!</t>
@@ -1018,7 +1018,7 @@
     <t>Un poco de humor a nuestra conversación.</t>
   </si>
   <si>
-    <t>¡Y llegó el tercer día! Armagedón. Duele simplemente mantener las piernas rectas. Solo puedo inclinarme con las piernas dobladas, quejándome como una anciana. Aunque los ejercicios en sí al principio parecían muy simples. El lunes hice NI, pero agrege la serie favorita +  6 min los cardio de los mejores del mes pasado. Cancelé los descansos con indignación, la carga parecía insuficiente. Martes-NM, aunque las piernas ya temblaban agregue los cardio de nuevo. ¿Y por qué me parece durante el entrenamiento que puedo hacerlo todo? Quitándome el sombrero frente a Ana, no es un ejercicio, es una bomba de efecto retardado.</t>
+    <t>¡Y llegó el tercer día! Armagedón. Duele simplemente mantener las piernas rectas. Solo puedo inclinarme con las piernas dobladas, quejándome como una anciana. Aunque los ejercicios en sí al principio parecían muy simples. El lunes hice NI, pero agregue la serie favorita +  6 min los cardio de los mejores del mes pasado. Cancelé los descansos con indignación, la carga parecía insuficiente. Martes-NM, aunque las piernas ya temblaban agregue los cardio de nuevo. ¿Y por qué me parece durante el entrenamiento que puedo hacerlo todo? Quitándome el sombrero frente a Ana, no es un ejercicio, es una bomba de efecto retardado.</t>
   </si>
   <si>
     <t>Fabiola, Cantabria</t>
@@ -1027,7 +1027,7 @@
     <t>Recuerdo cómo casi me muero en la primera semana, gracias a las chicas por el apoyo . Ahora estoy haciendo ejercicios con placer y los niños se han entrenado conmigo y el gato siempre está ahí e incluso mi abuela trae una alfombra y hace alguito en el piso</t>
   </si>
   <si>
-    <t>Todo se convirtió en un placer y después del entrenamiento respiro con gran alivio. Un día sí y otro no con mi esposo voy al gimnasio y ya puedo levantar más peso, lo que también me agrada. Miro con satisfacción en el espejo ya que el cuerpo se reafirmado y los costados disminuyeronahora no me veo como una oruga.</t>
+    <t>Todo se convirtió en un placer y después del entrenamiento respiro con gran alivio. Un día sí y otro no con mi esposo voy al gimnasio y ya puedo levantar más peso, lo que también me agrada. Miro con satisfacción en el espejo ya que el cuerpo se reafirmado y los costados disminuyeron ahora no me veo como una oruga.</t>
   </si>
   <si>
     <t>Gracias, Ana. Continuaré con mucho gusto.</t>
@@ -1060,7 +1060,7 @@
     <t>Elena, España</t>
   </si>
   <si>
-    <t>Entré en el proyecto de Ana García el 6 de febrero de 2017, me propuse el objetivo de perder 8 kg, antes de eso ya había bajado 30 kg y el peso se había detenido, y después de las vacaciones de Año Nuevo incluso aumenté 3 kg, antes de eso solo estaba practicando el gimnasio y al pasar al lado de la oficina, donde Ana daba clases de  entrenamiento, tenía miedo de mirar allí, pensé que nunca podría hacer eso. Pero superé el miedo y me inscribí en sus clases. Fui a la primera sesión de entrenamiento y todo el cuerpo tembló por dentro, pero después tuve un zumbido que no pude describir con palabras: me ardían las mejillas, no podía respirar, todo el cuerpo me temblaba, pero al mismo tiempo quería volver a experimentar esta sensacion. Realmente no me gusta cocinar, pero el menú que Ana nos enseño es muy sabroso, saludable y fácil de preparar (cocino una vez a la semana). Durante la primera semana de entrenamiento y PP, perdi 2.5 kg, esto es genial, y aún quedan 7 semanas por delante, tal vez incluso bajare mas de peso. Ana García es una persona muy buena y alegre, una excelente entrenadora y nuestra inspiradora me gusta que si tengo algo que no funciona,ella no me obliga a hacerlo, sino que reemplaza el ejercicio con el que puedo hacer en esta etapa. Ella me mostró de lo que mi cuerpo es capaz. Espero que durante el proyecto nos conozcamos mejor y seamos amigas, porque no solo tiene capacitación grupal, sino también proyectos en línea, por lo que no me detendré allí, siga mis comentarios, el 30 de marzo escribiré un informe sobre cómo fueron estas 7 semanas en compañía de 9 chicas maravillosas y nuestro gurú para esculpir nuestro cuerpo.</t>
+    <t>Entré en el proyecto de Ana García el 6 de febrero de 2017, me propuse el objetivo de perder 8 kg, antes de eso ya había bajado 30 kg y el peso se había detenido, y después de las vacaciones de Año Nuevo incluso aumenté 3 kg, antes de eso solo estaba practicando el gimnasio y al pasar al lado de la sala, donde Ana daba clases de  entrenamiento, tenía miedo de entrar, pensé que nunca podría hacer eso. Pero superé el miedo y me inscribí en sus clases. Fui a la primera sesión de entrenamiento y todo el cuerpo tembló por dentro, pero después tuve un zumbido que no pude describir con palabras: me ardían las mejillas, no podía respirar, todo el cuerpo me temblaba, pero al mismo tiempo quería volver a experimentar esta sensacion. Realmente no me gusta cocinar, pero el menú que Ana nos enseño es muy sabroso, saludable y fácil de preparar (cocino una vez a la semana). Durante la primera semana de entrenamiento y PP, perdi 2.5 kg, esto es genial, y aún quedan 7 semanas por delante, tal vez incluso bajare mas de peso. Ana García es una persona muy buena y alegre, una excelente entrenadora y nuestra inspiradora me gusta que si tengo algo que no funciona,ella no me obliga a hacerlo, sino que reemplaza el ejercicio con el que puedo hacer en esta etapa. Ella me mostró de lo que mi cuerpo es capaz. Espero que durante el proyecto nos conozcamos mejor y seamos amigas, porque no solo tiene capacitación grupal, sino también proyectos en línea, por lo que no me detendré allí, siga mis comentarios, el 30 de marzo escribiré un informe sobre cómo fueron estas 7 semanas en compañía de 9 chicas maravillosas y nuestro gurú para esculpir nuestro cuerpo.</t>
   </si>
   <si>
     <t>Lucía España</t>
@@ -2312,7 +2312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2346,7 +2346,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2446,13 +2445,13 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
